--- a/fhir/ig/urgencia/ValueSet-lesion-autoinflingida.xlsx
+++ b/fhir/ig/urgencia/ValueSet-lesion-autoinflingida.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-27T17:49:18-04:00</t>
+    <t>2024-08-29T09:57:29-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/ig/urgencia/ValueSet-lesion-autoinflingida.xlsx
+++ b/fhir/ig/urgencia/ValueSet-lesion-autoinflingida.xlsx
@@ -7,13 +7,13 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from Lesión Autoinfli" r:id="rId4" sheetId="2"/>
+    <sheet name="Include #0" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
   <si>
     <t>Property</t>
   </si>
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://proceso-urgencia.minsal.cl/ValueSet/lesion-autoinflingida</t>
+    <t>https://interoperabilidad.minsal.cl/fhir/ig/urgencia/ValueSet/lesion-autoinflingida</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,19 +60,19 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-29T09:57:29-04:00</t>
+    <t>2024-11-07T14:38:19-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>ChileData</t>
+    <t>Unidad de Interoperabilidad - MINSAL</t>
   </si>
   <si>
     <t>Contact</t>
   </si>
   <si>
-    <t>ChileData (http://chiledata.cl)</t>
+    <t>Unidad de Interoperabilidad - MINSAL (https://interoperabilidad.minsal.cl)</t>
   </si>
   <si>
     <t>Roberto Araneda (roberto.araneda@chiledata.cl(work))</t>
@@ -84,37 +84,40 @@
     <t>Jurisdiction</t>
   </si>
   <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Códigos de lesión autoinflingida</t>
+  </si>
+  <si>
+    <t>Purpose</t>
+  </si>
+  <si>
+    <t>Copyright</t>
+  </si>
+  <si>
+    <t>Immutable</t>
+  </si>
+  <si>
+    <t>BooleanType[null]</t>
+  </si>
+  <si>
+    <t>Codes</t>
+  </si>
+  <si>
+    <t>All codes</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Códigos de lesión autoinflingida</t>
-  </si>
-  <si>
-    <t>Purpose</t>
-  </si>
-  <si>
-    <t>Copyright</t>
-  </si>
-  <si>
-    <t>Immutable</t>
-  </si>
-  <si>
-    <t>BooleanType[null]</t>
-  </si>
-  <si>
-    <t>Codes</t>
-  </si>
-  <si>
-    <t>All codes</t>
-  </si>
-  <si>
     <t>System URI</t>
   </si>
   <si>
-    <t>http://proceso-urgencia.minsal.cl/CodeSystem/lesion-autoinflingida</t>
+    <t>https://interoperabilidad.minsal.cl/fhir/ig/urgencia/CodeSystem/lesion-autoinflingida</t>
   </si>
 </sst>
 </file>
@@ -419,18 +422,18 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/fhir/ig/urgencia/ValueSet-lesion-autoinflingida.xlsx
+++ b/fhir/ig/urgencia/ValueSet-lesion-autoinflingida.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-07T14:38:19-03:00</t>
+    <t>2024-12-13T10:10:51-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/ig/urgencia/ValueSet-lesion-autoinflingida.xlsx
+++ b/fhir/ig/urgencia/ValueSet-lesion-autoinflingida.xlsx
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-13T10:10:51-03:00</t>
+    <t>2024-12-16T14:50:05-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/ig/urgencia/ValueSet-lesion-autoinflingida.xlsx
+++ b/fhir/ig/urgencia/ValueSet-lesion-autoinflingida.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.1.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-16T14:50:05-03:00</t>
+    <t>2024-12-17T10:22:12-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
